--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3887.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3887.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.217972472164989</v>
+        <v>2.047002792358398</v>
       </c>
       <c r="B1">
-        <v>2.324764965001862</v>
+        <v>3.163487434387207</v>
       </c>
       <c r="C1">
-        <v>2.352405942886389</v>
+        <v>5.855867862701416</v>
       </c>
       <c r="D1">
-        <v>2.93871660832156</v>
+        <v>2.347394704818726</v>
       </c>
       <c r="E1">
-        <v>3.315218646751532</v>
+        <v>0.9339359402656555</v>
       </c>
     </row>
   </sheetData>
